--- a/EduAnalysisTool/input_tool/edu_table_helper_EN_SOM.xlsx
+++ b/EduAnalysisTool/input_tool/edu_table_helper_EN_SOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNA_2024_EduAnalysis/EduAnalysisTool/input_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{99C3B959-47B9-46FF-840A-9ED11DAE893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4347C08B-1B15-4461-A25B-2663C14E3999}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{99C3B959-47B9-46FF-840A-9ED11DAE893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AEA88EB-AC46-4645-B2BA-26A0022DC178}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-3720" windowWidth="19380" windowHeight="11460" activeTab="2" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="9510" yWindow="-4225" windowWidth="19380" windowHeight="11460" activeTab="5" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="65">
   <si>
     <t>tab</t>
   </si>
@@ -98,9 +98,6 @@
     <t>% of school-aged children whose education was disrupted due to natural hazards</t>
   </si>
   <si>
-    <t>% of school-aged children  who did not attend school or any early childhood education program at any time during the 2023-2024 school year</t>
-  </si>
-  <si>
     <t>% of school-aged children of primary school age currently attending primary or higher</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>School Attendance Profile: primary</t>
   </si>
   <si>
-    <t>% of school-aged children of intermediate school level age currently attending intermediate school level or higher</t>
-  </si>
-  <si>
     <t>School Attendance Profile: intermediate -- secondary</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
     <t>% of OoS children</t>
   </si>
   <si>
-    <t>There is a lack of interest/Education is not a priority either for the child or the household</t>
-  </si>
-  <si>
     <t>Lack of appropriate and accessible school</t>
   </si>
   <si>
@@ -176,15 +167,9 @@
     <t>Analysis of Children Not Accessing Education and following non-formal programs</t>
   </si>
   <si>
-    <t>non-formal</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t xml:space="preserve">private tutoring </t>
-  </si>
-  <si>
     <t>wgq</t>
   </si>
   <si>
@@ -212,35 +197,56 @@
     <t>no difficulty -- % of school-aged children with at least one of WG-SS component is at level 'no difficulty'</t>
   </si>
   <si>
-    <t>% of school-aged children whose education was disrupted due to the school being occupied by armed groups</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
-    <t>% of school-aged children accessing education outside of formal schools during the 2023-2024 school year</t>
-  </si>
-  <si>
-    <t>Cannot afford the direct costs of education</t>
-  </si>
-  <si>
-    <t>% of school-aged children attending lower secondary school who are at least 2 years above the intended age for their grade</t>
-  </si>
-  <si>
-    <t>% of school-aged children attending upper secondary school who are at least 2 years above the intended age for their grade</t>
-  </si>
-  <si>
-    <t>Child needs to work at home or on the household's own farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">School does not have enough classrooms that are usable </t>
+    <t>% of school-aged children who attended school or any early childhood education program at any time during the 2024-2025 school year </t>
+  </si>
+  <si>
+    <t>% of school-aged children  who did not attend school or any early childhood education program at any time during the 2024-2025 school year</t>
+  </si>
+  <si>
+    <t>Public/Government School</t>
+  </si>
+  <si>
+    <t>Private School</t>
+  </si>
+  <si>
+    <t>Community School, IDP</t>
+  </si>
+  <si>
+    <t>Community School, Host Community</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>% of school-aged children of secondary school level age currently attending secondary school or higher</t>
+  </si>
+  <si>
+    <t>% of school-aged children attending secondary who are at least 2 years above the intended age for their grade</t>
+  </si>
+  <si>
+    <t>Cannot afford the direct costs of education, e.g. tuition, supplies, transportation</t>
+  </si>
+  <si>
+    <t>The child is too young</t>
+  </si>
+  <si>
+    <t>There is a lack of interest for formal education</t>
+  </si>
+  <si>
+    <t>Education is not a priority either for the child or the household</t>
+  </si>
+  <si>
+    <t>% of school-aged children whose education was disrupted due to direct attack on education</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,13 +278,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +306,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,11 +337,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -317,20 +355,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
+    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 3" xfId="1" xr:uid="{F5926E20-CCAC-4642-87FD-D0DA4C1FB8CE}"/>
   </cellStyles>
@@ -666,188 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0B085A-F222-4D02-94C7-458C197FFE9F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" customWidth="1"/>
-    <col min="6" max="7" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G5" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F40627-19AF-4943-A7ED-0C5FB9817524}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G5" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G6" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36B93C1-E6B8-4A90-A407-38EEDC988F7A}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -885,10 +749,10 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -896,31 +760,210 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
+      <c r="E2" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>59</v>
+        <v>29</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F40627-19AF-4943-A7ED-0C5FB9817524}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36B93C1-E6B8-4A90-A407-38EEDC988F7A}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
+    <col min="6" max="7" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="G2" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -931,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39444B71-EEA9-4171-A7FB-692AC9A3C4DA}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,53 +1011,53 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>61</v>
+      <c r="G2" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>58</v>
+        <v>29</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="8" t="s">
-        <v>39</v>
+      <c r="G6" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="7" t="s">
-        <v>56</v>
+      <c r="G7" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +1108,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1074,26 +1117,26 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1149,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,12 +1180,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1151,24 +1194,24 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
+      <c r="G2" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1180,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1234059E-FF89-4231-AEDD-537A0FD72374}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,12 +1255,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1226,24 +1269,24 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
+      <c r="G2" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1256,7 +1299,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1307,18 +1350,18 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1367,7 +1410,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1382,18 +1425,18 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1405,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9C0465-1C7D-4B1F-A8C2-33AD3A9FD7BD}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,44 +1482,52 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="3"/>
+      <c r="G5" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="3"/>
+      <c r="G6" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G7" s="3"/>
